--- a/110_Analyses_Données/Ex_17.xlsx
+++ b/110_Analyses_Données/Ex_17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\110_Analyses_Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF7DA7E-6B1F-4F61-A515-47F0B8633216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CC839A-E425-4F58-94A1-A7C1C5D14FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$N$1</definedName>
-    <definedName name="_xlcn.WorksheetConnection_dataA1N10011" hidden="1">data!$A$1:$N$1001</definedName>
+    <definedName name="_xlcn.WorksheetConnection_dataA1N1001" hidden="1">data!$A$1:$N$1001</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="123" r:id="rId3"/>
-    <pivotCache cacheId="172" r:id="rId4"/>
-    <pivotCache cacheId="170" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -64,7 +64,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dataA1N10011"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dataA1N1001"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -7342,10 +7342,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7570,7 +7569,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Abonnement!$B$3</c:f>
+              <c:f>Abonnement!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7591,7 +7590,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Abonnement!$A$4:$A$7</c:f>
+              <c:f>Abonnement!$B$4:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7611,7 +7610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abonnement!$B$4:$B$7</c:f>
+              <c:f>Abonnement!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7641,7 +7640,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Abonnement!$C$3</c:f>
+              <c:f>Abonnement!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7662,7 +7661,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Abonnement!$A$4:$A$7</c:f>
+              <c:f>Abonnement!$B$4:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7682,7 +7681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abonnement!$C$4:$C$7</c:f>
+              <c:f>Abonnement!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7712,7 +7711,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Abonnement!$D$3</c:f>
+              <c:f>Abonnement!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7733,7 +7732,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Abonnement!$A$4:$A$7</c:f>
+              <c:f>Abonnement!$B$4:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -7753,7 +7752,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abonnement!$D$4:$D$7</c:f>
+              <c:f>Abonnement!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8279,6 +8278,230 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -8289,7 +8512,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Abonnement!$B$27</c:f>
+              <c:f>Abonnement!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8312,6 +8535,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8327,6 +8555,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8342,6 +8575,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8357,6 +8595,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -8415,7 +8658,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Abonnement!$A$28:$A$31</c:f>
+              <c:f>Abonnement!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8435,7 +8678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abonnement!$B$28:$B$31</c:f>
+              <c:f>Abonnement!$C$28:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8465,7 +8708,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Abonnement!$C$27</c:f>
+              <c:f>Abonnement!$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8488,6 +8731,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8503,6 +8751,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8518,6 +8771,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8533,10 +8791,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Abonnement!$A$28:$A$31</c:f>
+              <c:f>Abonnement!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8556,7 +8819,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abonnement!$C$28:$C$31</c:f>
+              <c:f>Abonnement!$D$28:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8586,7 +8849,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Abonnement!$D$27</c:f>
+              <c:f>Abonnement!$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8609,6 +8872,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8624,6 +8892,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8639,6 +8912,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8654,10 +8932,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Abonnement!$A$28:$A$31</c:f>
+              <c:f>Abonnement!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8677,7 +8960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abonnement!$D$28:$D$31</c:f>
+              <c:f>Abonnement!$E$28:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8707,7 +8990,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Abonnement!$E$27</c:f>
+              <c:f>Abonnement!$F$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8730,6 +9013,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8745,6 +9033,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8760,6 +9053,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8775,10 +9073,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-7E60-46F3-8023-E55C5BE406AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Abonnement!$A$28:$A$31</c:f>
+              <c:f>Abonnement!$B$28:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8798,7 +9101,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Abonnement!$E$28:$E$31</c:f>
+              <c:f>Abonnement!$F$28:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10039,16 +10342,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>995362</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1023937</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10075,14 +10378,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -26552,8 +26855,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4ECE1C6-3144-404F-9DF5-B0548711D7E9}" name="PivotTable34" cacheId="172" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A66:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4ECE1C6-3144-404F-9DF5-B0548711D7E9}" name="PivotTable34" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B66:C73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="6">
@@ -26649,8 +26952,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B0C862B-BEE3-443C-BA0C-45AAC9E673A3}" name="PivotTable33" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A60:C63" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B0C862B-BEE3-443C-BA0C-45AAC9E673A3}" name="PivotTable33" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B59:D62" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -26782,8 +27085,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E52F535-F9D6-4F00-948C-668B7EF7BA19}" name="PivotTable32" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A50:D54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E52F535-F9D6-4F00-948C-668B7EF7BA19}" name="PivotTable32" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B50:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -26857,8 +27160,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F8A565-822A-4FA8-822D-593F8E64C945}" name="PivotTable31" cacheId="170" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A27:E31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F8A565-822A-4FA8-822D-593F8E64C945}" name="PivotTable31" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="B27:F31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="5">
@@ -26914,7 +27217,7 @@
     <dataField name="Min of movies_by_month" fld="2" subtotal="min" baseField="0" baseItem="0"/>
     <dataField name="Max of movies_by_month2" fld="3" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="20">
     <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -26947,6 +27250,198 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -27005,8 +27500,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEAAA98B-D80B-4313-A035-E7436A0CBA84}" name="PivotTable30" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEAAA98B-D80B-4313-A035-E7436A0CBA84}" name="PivotTable30" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:E7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -71461,10 +71956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74A1264-E4C9-4E0A-AD28-6F9B4B795F1D}">
-  <dimension ref="A3:I73"/>
+  <dimension ref="B3:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -71479,516 +71974,538 @@
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2393</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2396</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2397</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.1659192825112106</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.2377358490566035</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.0410958904109586</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.8259385665529013</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="4" t="s">
         <v>2398</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4">
-        <v>3.1659192825112106</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C28">
+        <v>1212</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5.434977578475336</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>1447</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5.4603773584905664</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>1149</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5.2465753424657535</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1708</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5.8293515358361772</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="4" t="s">
+        <v>2409</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F41" s="4" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.7264573991031391</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
-        <v>5.2377358490566035</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C52" s="3">
+        <v>3.3320754716981131</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.5844748858447488</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1.3583617747440273</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F55" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>481</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5.1600831600831603</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>519</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5.2331406551059727</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C62">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5.1980000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44.463768115942031</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3">
+        <v>45.371428571428574</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>46.451977401129945</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3">
+        <v>48.955223880597018</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3">
+        <v>48.245070422535214</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5.0410958904109586</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6.8259385665529013</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F10" s="5" t="s">
-        <v>2399</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2400</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2401</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2402</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1212</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5.434977578475336</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1447</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5.4603773584905664</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>2409</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1149</v>
-      </c>
-      <c r="C30" s="4">
-        <v>5.2465753424657535</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1708</v>
-      </c>
-      <c r="C31" s="4">
-        <v>5.8293515358361772</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F38" s="5" t="s">
-        <v>2408</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2404</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2405</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2406</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>2407</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1.7264573991031391</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>4</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="4">
-        <v>3.3320754716981131</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>9</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1.5844748858447488</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>4</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1.3583617747440273</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>4</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2410</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="2">
-        <v>481</v>
-      </c>
-      <c r="C61" s="4">
-        <v>5.1600831600831603</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="2">
-        <v>519</v>
-      </c>
-      <c r="C62" s="4">
-        <v>5.2331406551059727</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="C72" s="3">
+        <v>46.541666666666664</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>2395</v>
       </c>
-      <c r="B63" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C63" s="4">
-        <v>5.1980000000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>1</v>
-      </c>
-      <c r="B67" s="4">
-        <v>44.463768115942031</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>3</v>
-      </c>
-      <c r="B68" s="4">
-        <v>45.371428571428574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>4</v>
-      </c>
-      <c r="B69" s="4">
-        <v>46.451977401129945</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>5</v>
-      </c>
-      <c r="B70" s="4">
-        <v>48.955223880597018</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>6</v>
-      </c>
-      <c r="B71" s="4">
-        <v>48.245070422535214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>8</v>
-      </c>
-      <c r="B72" s="4">
-        <v>46.541666666666664</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>2395</v>
-      </c>
-      <c r="B73" s="4">
+      <c r="C73" s="3">
         <v>46.984999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F3:I8"/>
-    <mergeCell ref="F10:I15"/>
-    <mergeCell ref="F38:I43"/>
-    <mergeCell ref="F50:I55"/>
-    <mergeCell ref="F29:I35"/>
+    <mergeCell ref="F8:I13"/>
+    <mergeCell ref="F16:I21"/>
+    <mergeCell ref="F41:I46"/>
+    <mergeCell ref="F55:I60"/>
+    <mergeCell ref="F32:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId6"/>
